--- a/MIT_SOLVE_downloadable_excel_files/stage_match.xlsx
+++ b/MIT_SOLVE_downloadable_excel_files/stage_match.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>AIR-INK: Air-Pollution to ink</t>
   </si>
@@ -233,18 +233,6 @@
   </si>
   <si>
     <t>Yum! Brands</t>
-  </si>
-  <si>
-    <t>Growth</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Pilot</t>
-  </si>
-  <si>
-    <t>Prototype</t>
   </si>
 </sst>
 </file>
@@ -713,14 +701,14 @@
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -728,8 +716,8 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>73</v>
+      <c r="G2">
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -743,17 +731,17 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" t="s">
-        <v>73</v>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -761,8 +749,8 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" t="s">
-        <v>73</v>
+      <c r="R2">
+        <v>1</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -776,17 +764,17 @@
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>73</v>
+      <c r="W2">
+        <v>1</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
-      <c r="Y2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>73</v>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -794,11 +782,11 @@
       <c r="AB2">
         <v>0</v>
       </c>
-      <c r="AC2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>73</v>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -817,8 +805,8 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>74</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -960,8 +948,8 @@
       <c r="P4">
         <v>0</v>
       </c>
-      <c r="Q4" t="s">
-        <v>76</v>
+      <c r="Q4">
+        <v>1</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -972,8 +960,8 @@
       <c r="T4">
         <v>0</v>
       </c>
-      <c r="U4" t="s">
-        <v>76</v>
+      <c r="U4">
+        <v>1</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -990,8 +978,8 @@
       <c r="Z4">
         <v>0</v>
       </c>
-      <c r="AA4" t="s">
-        <v>76</v>
+      <c r="AA4">
+        <v>1</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1008,8 +996,8 @@
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4" t="s">
-        <v>76</v>
+      <c r="AG4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -1061,8 +1049,8 @@
       <c r="P5">
         <v>0</v>
       </c>
-      <c r="Q5" t="s">
-        <v>76</v>
+      <c r="Q5">
+        <v>1</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1073,8 +1061,8 @@
       <c r="T5">
         <v>0</v>
       </c>
-      <c r="U5" t="s">
-        <v>76</v>
+      <c r="U5">
+        <v>1</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1091,8 +1079,8 @@
       <c r="Z5">
         <v>0</v>
       </c>
-      <c r="AA5" t="s">
-        <v>76</v>
+      <c r="AA5">
+        <v>1</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1109,123 +1097,123 @@
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5" t="s">
-        <v>76</v>
+      <c r="AG5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" t="s">
-        <v>73</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R6" t="s">
-        <v>73</v>
-      </c>
-      <c r="S6" t="s">
-        <v>75</v>
-      </c>
-      <c r="T6" t="s">
-        <v>75</v>
-      </c>
-      <c r="U6" t="s">
-        <v>76</v>
-      </c>
-      <c r="V6" t="s">
-        <v>75</v>
-      </c>
-      <c r="W6" t="s">
-        <v>73</v>
-      </c>
-      <c r="X6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>76</v>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1233,8 +1221,8 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>73</v>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1248,17 +1236,17 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" t="s">
-        <v>73</v>
-      </c>
-      <c r="N7" t="s">
-        <v>73</v>
-      </c>
-      <c r="O7" t="s">
-        <v>73</v>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1266,8 +1254,8 @@
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7" t="s">
-        <v>73</v>
+      <c r="R7">
+        <v>1</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1281,17 +1269,17 @@
       <c r="V7">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>73</v>
+      <c r="W7">
+        <v>1</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
-      <c r="Y7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>73</v>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1299,11 +1287,11 @@
       <c r="AB7">
         <v>0</v>
       </c>
-      <c r="AC7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>73</v>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1319,14 +1307,14 @@
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1334,8 +1322,8 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>73</v>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1349,17 +1337,17 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" t="s">
-        <v>73</v>
-      </c>
-      <c r="N8" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" t="s">
-        <v>73</v>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1367,8 +1355,8 @@
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8" t="s">
-        <v>73</v>
+      <c r="R8">
+        <v>1</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1382,17 +1370,17 @@
       <c r="V8">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>73</v>
+      <c r="W8">
+        <v>1</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
-      <c r="Y8" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>73</v>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1400,11 +1388,11 @@
       <c r="AB8">
         <v>0</v>
       </c>
-      <c r="AC8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>73</v>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1420,14 +1408,14 @@
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" t="s">
-        <v>73</v>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1435,8 +1423,8 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>73</v>
+      <c r="G9">
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1450,17 +1438,17 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" t="s">
-        <v>73</v>
-      </c>
-      <c r="N9" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" t="s">
-        <v>73</v>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1468,8 +1456,8 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9" t="s">
-        <v>73</v>
+      <c r="R9">
+        <v>1</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1483,17 +1471,17 @@
       <c r="V9">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>73</v>
+      <c r="W9">
+        <v>1</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
-      <c r="Y9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>73</v>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1501,11 +1489,11 @@
       <c r="AB9">
         <v>0</v>
       </c>
-      <c r="AC9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>73</v>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1521,14 +1509,14 @@
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
-        <v>73</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>73</v>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1536,8 +1524,8 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" t="s">
-        <v>73</v>
+      <c r="G10">
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1551,17 +1539,17 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" t="s">
-        <v>73</v>
-      </c>
-      <c r="N10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" t="s">
-        <v>73</v>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1569,8 +1557,8 @@
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10" t="s">
-        <v>73</v>
+      <c r="R10">
+        <v>1</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1584,17 +1572,17 @@
       <c r="V10">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>73</v>
+      <c r="W10">
+        <v>1</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
-      <c r="Y10" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>73</v>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1602,11 +1590,11 @@
       <c r="AB10">
         <v>0</v>
       </c>
-      <c r="AC10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>73</v>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1622,101 +1610,101 @@
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" t="s">
-        <v>73</v>
-      </c>
-      <c r="N11" t="s">
-        <v>73</v>
-      </c>
-      <c r="O11" t="s">
-        <v>73</v>
-      </c>
-      <c r="P11" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>76</v>
-      </c>
-      <c r="R11" t="s">
-        <v>73</v>
-      </c>
-      <c r="S11" t="s">
-        <v>75</v>
-      </c>
-      <c r="T11" t="s">
-        <v>75</v>
-      </c>
-      <c r="U11" t="s">
-        <v>76</v>
-      </c>
-      <c r="V11" t="s">
-        <v>75</v>
-      </c>
-      <c r="W11" t="s">
-        <v>73</v>
-      </c>
-      <c r="X11" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>76</v>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -1732,26 +1720,26 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" t="s">
-        <v>75</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" t="s">
-        <v>75</v>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1765,8 +1753,8 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" t="s">
-        <v>75</v>
+      <c r="P12">
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1774,23 +1762,23 @@
       <c r="R12">
         <v>0</v>
       </c>
-      <c r="S12" t="s">
-        <v>75</v>
-      </c>
-      <c r="T12" t="s">
-        <v>75</v>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
-      <c r="V12" t="s">
-        <v>75</v>
+      <c r="V12">
+        <v>1</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
-      <c r="X12" t="s">
-        <v>75</v>
+      <c r="X12">
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1801,8 +1789,8 @@
       <c r="AA12">
         <v>0</v>
       </c>
-      <c r="AB12" t="s">
-        <v>75</v>
+      <c r="AB12">
+        <v>1</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -1810,11 +1798,11 @@
       <c r="AD12">
         <v>0</v>
       </c>
-      <c r="AE12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>75</v>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
       </c>
       <c r="AG12">
         <v>0</v>
@@ -1824,98 +1812,98 @@
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" t="s">
-        <v>73</v>
-      </c>
-      <c r="N13" t="s">
-        <v>73</v>
-      </c>
-      <c r="O13" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" t="s">
-        <v>75</v>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="R13" t="s">
-        <v>73</v>
-      </c>
-      <c r="S13" t="s">
-        <v>75</v>
-      </c>
-      <c r="T13" t="s">
-        <v>75</v>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
-      <c r="V13" t="s">
-        <v>75</v>
-      </c>
-      <c r="W13" t="s">
-        <v>73</v>
-      </c>
-      <c r="X13" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>73</v>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
-      <c r="AB13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>75</v>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -1925,115 +1913,115 @@
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" t="s">
-        <v>73</v>
-      </c>
-      <c r="N14" t="s">
-        <v>73</v>
-      </c>
-      <c r="O14" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>76</v>
-      </c>
-      <c r="R14" t="s">
-        <v>73</v>
-      </c>
-      <c r="S14" t="s">
-        <v>75</v>
-      </c>
-      <c r="T14" t="s">
-        <v>75</v>
-      </c>
-      <c r="U14" t="s">
-        <v>76</v>
-      </c>
-      <c r="V14" t="s">
-        <v>75</v>
-      </c>
-      <c r="W14" t="s">
-        <v>73</v>
-      </c>
-      <c r="X14" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>76</v>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2041,8 +2029,8 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
-        <v>73</v>
+      <c r="G15">
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2056,17 +2044,17 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15" t="s">
-        <v>73</v>
-      </c>
-      <c r="M15" t="s">
-        <v>73</v>
-      </c>
-      <c r="N15" t="s">
-        <v>73</v>
-      </c>
-      <c r="O15" t="s">
-        <v>73</v>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2074,8 +2062,8 @@
       <c r="Q15">
         <v>0</v>
       </c>
-      <c r="R15" t="s">
-        <v>73</v>
+      <c r="R15">
+        <v>1</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2089,17 +2077,17 @@
       <c r="V15">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>73</v>
+      <c r="W15">
+        <v>1</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
-      <c r="Y15" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>73</v>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -2107,11 +2095,11 @@
       <c r="AB15">
         <v>0</v>
       </c>
-      <c r="AC15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>73</v>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2127,14 +2115,14 @@
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2142,8 +2130,8 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
-        <v>73</v>
+      <c r="G16">
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2157,17 +2145,17 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" t="s">
-        <v>73</v>
-      </c>
-      <c r="N16" t="s">
-        <v>73</v>
-      </c>
-      <c r="O16" t="s">
-        <v>73</v>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2175,8 +2163,8 @@
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16" t="s">
-        <v>73</v>
+      <c r="R16">
+        <v>1</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2190,17 +2178,17 @@
       <c r="V16">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>73</v>
+      <c r="W16">
+        <v>1</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
-      <c r="Y16" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>73</v>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -2208,11 +2196,11 @@
       <c r="AB16">
         <v>0</v>
       </c>
-      <c r="AC16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>73</v>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -2228,98 +2216,98 @@
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
-        <v>73</v>
+      <c r="B17">
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17" t="s">
-        <v>73</v>
-      </c>
-      <c r="N17" t="s">
-        <v>73</v>
-      </c>
-      <c r="O17" t="s">
-        <v>73</v>
-      </c>
-      <c r="P17" t="s">
-        <v>75</v>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17" t="s">
-        <v>73</v>
-      </c>
-      <c r="S17" t="s">
-        <v>75</v>
-      </c>
-      <c r="T17" t="s">
-        <v>75</v>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
-      <c r="V17" t="s">
-        <v>75</v>
-      </c>
-      <c r="W17" t="s">
-        <v>73</v>
-      </c>
-      <c r="X17" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>73</v>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
-      <c r="AB17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>75</v>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
       </c>
       <c r="AG17">
         <v>0</v>
@@ -2329,300 +2317,300 @@
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s">
-        <v>73</v>
+      <c r="B18">
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18" t="s">
-        <v>75</v>
-      </c>
-      <c r="L18" t="s">
-        <v>73</v>
-      </c>
-      <c r="M18" t="s">
-        <v>73</v>
-      </c>
-      <c r="N18" t="s">
-        <v>73</v>
-      </c>
-      <c r="O18" t="s">
-        <v>73</v>
-      </c>
-      <c r="P18" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>76</v>
-      </c>
-      <c r="R18" t="s">
-        <v>73</v>
-      </c>
-      <c r="S18" t="s">
-        <v>75</v>
-      </c>
-      <c r="T18" t="s">
-        <v>75</v>
-      </c>
-      <c r="U18" t="s">
-        <v>76</v>
-      </c>
-      <c r="V18" t="s">
-        <v>75</v>
-      </c>
-      <c r="W18" t="s">
-        <v>73</v>
-      </c>
-      <c r="X18" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>76</v>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" t="s">
-        <v>75</v>
-      </c>
-      <c r="K19" t="s">
-        <v>75</v>
-      </c>
-      <c r="L19" t="s">
-        <v>73</v>
-      </c>
-      <c r="M19" t="s">
-        <v>73</v>
-      </c>
-      <c r="N19" t="s">
-        <v>73</v>
-      </c>
-      <c r="O19" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>76</v>
-      </c>
-      <c r="R19" t="s">
-        <v>73</v>
-      </c>
-      <c r="S19" t="s">
-        <v>75</v>
-      </c>
-      <c r="T19" t="s">
-        <v>75</v>
-      </c>
-      <c r="U19" t="s">
-        <v>76</v>
-      </c>
-      <c r="V19" t="s">
-        <v>75</v>
-      </c>
-      <c r="W19" t="s">
-        <v>73</v>
-      </c>
-      <c r="X19" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>76</v>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" t="s">
-        <v>75</v>
-      </c>
-      <c r="J20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" t="s">
-        <v>75</v>
-      </c>
-      <c r="L20" t="s">
-        <v>73</v>
-      </c>
-      <c r="M20" t="s">
-        <v>73</v>
-      </c>
-      <c r="N20" t="s">
-        <v>73</v>
-      </c>
-      <c r="O20" t="s">
-        <v>73</v>
-      </c>
-      <c r="P20" t="s">
-        <v>75</v>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-      <c r="R20" t="s">
-        <v>73</v>
-      </c>
-      <c r="S20" t="s">
-        <v>75</v>
-      </c>
-      <c r="T20" t="s">
-        <v>75</v>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
-      <c r="V20" t="s">
-        <v>75</v>
-      </c>
-      <c r="W20" t="s">
-        <v>73</v>
-      </c>
-      <c r="X20" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>73</v>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
-      <c r="AB20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>75</v>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
       </c>
       <c r="AG20">
         <v>0</v>
@@ -2632,14 +2620,14 @@
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" t="s">
-        <v>73</v>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2647,8 +2635,8 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
-        <v>73</v>
+      <c r="G21">
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2662,17 +2650,17 @@
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M21" t="s">
-        <v>73</v>
-      </c>
-      <c r="N21" t="s">
-        <v>73</v>
-      </c>
-      <c r="O21" t="s">
-        <v>73</v>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2680,8 +2668,8 @@
       <c r="Q21">
         <v>0</v>
       </c>
-      <c r="R21" t="s">
-        <v>73</v>
+      <c r="R21">
+        <v>1</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2695,17 +2683,17 @@
       <c r="V21">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>73</v>
+      <c r="W21">
+        <v>1</v>
       </c>
       <c r="X21">
         <v>0</v>
       </c>
-      <c r="Y21" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>73</v>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
       </c>
       <c r="AA21">
         <v>0</v>
@@ -2713,11 +2701,11 @@
       <c r="AB21">
         <v>0</v>
       </c>
-      <c r="AC21" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>73</v>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -2733,101 +2721,101 @@
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B22" t="s">
-        <v>73</v>
+      <c r="B22">
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" t="s">
-        <v>75</v>
-      </c>
-      <c r="K22" t="s">
-        <v>75</v>
-      </c>
-      <c r="L22" t="s">
-        <v>73</v>
-      </c>
-      <c r="M22" t="s">
-        <v>73</v>
-      </c>
-      <c r="N22" t="s">
-        <v>73</v>
-      </c>
-      <c r="O22" t="s">
-        <v>73</v>
-      </c>
-      <c r="P22" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>76</v>
-      </c>
-      <c r="R22" t="s">
-        <v>73</v>
-      </c>
-      <c r="S22" t="s">
-        <v>75</v>
-      </c>
-      <c r="T22" t="s">
-        <v>75</v>
-      </c>
-      <c r="U22" t="s">
-        <v>76</v>
-      </c>
-      <c r="V22" t="s">
-        <v>75</v>
-      </c>
-      <c r="W22" t="s">
-        <v>73</v>
-      </c>
-      <c r="X22" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>76</v>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -2843,26 +2831,26 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" t="s">
-        <v>75</v>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J23" t="s">
-        <v>75</v>
-      </c>
-      <c r="K23" t="s">
-        <v>75</v>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2876,32 +2864,32 @@
       <c r="O23">
         <v>0</v>
       </c>
-      <c r="P23" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>76</v>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
-      <c r="S23" t="s">
-        <v>75</v>
-      </c>
-      <c r="T23" t="s">
-        <v>75</v>
-      </c>
-      <c r="U23" t="s">
-        <v>76</v>
-      </c>
-      <c r="V23" t="s">
-        <v>75</v>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
-      <c r="X23" t="s">
-        <v>75</v>
+      <c r="X23">
+        <v>1</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2909,11 +2897,11 @@
       <c r="Z23">
         <v>0</v>
       </c>
-      <c r="AA23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>75</v>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -2921,14 +2909,14 @@
       <c r="AD23">
         <v>0</v>
       </c>
-      <c r="AE23" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>76</v>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -2980,8 +2968,8 @@
       <c r="P24">
         <v>0</v>
       </c>
-      <c r="Q24" t="s">
-        <v>76</v>
+      <c r="Q24">
+        <v>1</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -2992,8 +2980,8 @@
       <c r="T24">
         <v>0</v>
       </c>
-      <c r="U24" t="s">
-        <v>76</v>
+      <c r="U24">
+        <v>1</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -3010,8 +2998,8 @@
       <c r="Z24">
         <v>0</v>
       </c>
-      <c r="AA24" t="s">
-        <v>76</v>
+      <c r="AA24">
+        <v>1</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -3028,109 +3016,109 @@
       <c r="AF24">
         <v>0</v>
       </c>
-      <c r="AG24" t="s">
-        <v>76</v>
+      <c r="AG24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B25" t="s">
-        <v>73</v>
+      <c r="B25">
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" t="s">
-        <v>75</v>
-      </c>
-      <c r="J25" t="s">
-        <v>75</v>
-      </c>
-      <c r="K25" t="s">
-        <v>75</v>
-      </c>
-      <c r="L25" t="s">
-        <v>73</v>
-      </c>
-      <c r="M25" t="s">
-        <v>73</v>
-      </c>
-      <c r="N25" t="s">
-        <v>73</v>
-      </c>
-      <c r="O25" t="s">
-        <v>73</v>
-      </c>
-      <c r="P25" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>76</v>
-      </c>
-      <c r="R25" t="s">
-        <v>73</v>
-      </c>
-      <c r="S25" t="s">
-        <v>75</v>
-      </c>
-      <c r="T25" t="s">
-        <v>75</v>
-      </c>
-      <c r="U25" t="s">
-        <v>76</v>
-      </c>
-      <c r="V25" t="s">
-        <v>75</v>
-      </c>
-      <c r="W25" t="s">
-        <v>73</v>
-      </c>
-      <c r="X25" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>76</v>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>1</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -3146,26 +3134,26 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" t="s">
-        <v>75</v>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26" t="s">
-        <v>75</v>
-      </c>
-      <c r="I26" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" t="s">
-        <v>75</v>
-      </c>
-      <c r="K26" t="s">
-        <v>75</v>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3179,32 +3167,32 @@
       <c r="O26">
         <v>0</v>
       </c>
-      <c r="P26" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>76</v>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
       </c>
       <c r="R26">
         <v>0</v>
       </c>
-      <c r="S26" t="s">
-        <v>75</v>
-      </c>
-      <c r="T26" t="s">
-        <v>75</v>
-      </c>
-      <c r="U26" t="s">
-        <v>76</v>
-      </c>
-      <c r="V26" t="s">
-        <v>75</v>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
-      <c r="X26" t="s">
-        <v>75</v>
+      <c r="X26">
+        <v>1</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -3212,11 +3200,11 @@
       <c r="Z26">
         <v>0</v>
       </c>
-      <c r="AA26" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>75</v>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3224,14 +3212,14 @@
       <c r="AD26">
         <v>0</v>
       </c>
-      <c r="AE26" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>76</v>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -3241,8 +3229,8 @@
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27" t="s">
-        <v>74</v>
+      <c r="C27">
+        <v>1</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3339,98 +3327,98 @@
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B28" t="s">
-        <v>73</v>
+      <c r="B28">
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I28" t="s">
-        <v>75</v>
-      </c>
-      <c r="J28" t="s">
-        <v>75</v>
-      </c>
-      <c r="K28" t="s">
-        <v>75</v>
-      </c>
-      <c r="L28" t="s">
-        <v>73</v>
-      </c>
-      <c r="M28" t="s">
-        <v>73</v>
-      </c>
-      <c r="N28" t="s">
-        <v>73</v>
-      </c>
-      <c r="O28" t="s">
-        <v>73</v>
-      </c>
-      <c r="P28" t="s">
-        <v>75</v>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
-      <c r="R28" t="s">
-        <v>73</v>
-      </c>
-      <c r="S28" t="s">
-        <v>75</v>
-      </c>
-      <c r="T28" t="s">
-        <v>75</v>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
-      <c r="V28" t="s">
-        <v>75</v>
-      </c>
-      <c r="W28" t="s">
-        <v>73</v>
-      </c>
-      <c r="X28" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>73</v>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
       </c>
       <c r="AA28">
         <v>0</v>
       </c>
-      <c r="AB28" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>75</v>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
       </c>
       <c r="AG28">
         <v>0</v>
@@ -3440,98 +3428,98 @@
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" t="s">
-        <v>75</v>
-      </c>
-      <c r="J29" t="s">
-        <v>75</v>
-      </c>
-      <c r="K29" t="s">
-        <v>75</v>
-      </c>
-      <c r="L29" t="s">
-        <v>73</v>
-      </c>
-      <c r="M29" t="s">
-        <v>73</v>
-      </c>
-      <c r="N29" t="s">
-        <v>73</v>
-      </c>
-      <c r="O29" t="s">
-        <v>73</v>
-      </c>
-      <c r="P29" t="s">
-        <v>75</v>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
-      <c r="R29" t="s">
-        <v>73</v>
-      </c>
-      <c r="S29" t="s">
-        <v>75</v>
-      </c>
-      <c r="T29" t="s">
-        <v>75</v>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
-      <c r="V29" t="s">
-        <v>75</v>
-      </c>
-      <c r="W29" t="s">
-        <v>73</v>
-      </c>
-      <c r="X29" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>73</v>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
-      <c r="AB29" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>75</v>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -3541,98 +3529,98 @@
       <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" t="s">
-        <v>75</v>
-      </c>
-      <c r="I30" t="s">
-        <v>75</v>
-      </c>
-      <c r="J30" t="s">
-        <v>75</v>
-      </c>
-      <c r="K30" t="s">
-        <v>75</v>
-      </c>
-      <c r="L30" t="s">
-        <v>73</v>
-      </c>
-      <c r="M30" t="s">
-        <v>73</v>
-      </c>
-      <c r="N30" t="s">
-        <v>73</v>
-      </c>
-      <c r="O30" t="s">
-        <v>73</v>
-      </c>
-      <c r="P30" t="s">
-        <v>75</v>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
-      <c r="R30" t="s">
-        <v>73</v>
-      </c>
-      <c r="S30" t="s">
-        <v>75</v>
-      </c>
-      <c r="T30" t="s">
-        <v>75</v>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
-      <c r="V30" t="s">
-        <v>75</v>
-      </c>
-      <c r="W30" t="s">
-        <v>73</v>
-      </c>
-      <c r="X30" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>73</v>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
-      <c r="AB30" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>75</v>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>1</v>
       </c>
       <c r="AG30">
         <v>0</v>
@@ -3645,8 +3633,8 @@
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" t="s">
-        <v>74</v>
+      <c r="C31">
+        <v>1</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3743,14 +3731,14 @@
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" t="s">
-        <v>73</v>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3758,8 +3746,8 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" t="s">
-        <v>73</v>
+      <c r="G32">
+        <v>1</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3773,17 +3761,17 @@
       <c r="K32">
         <v>0</v>
       </c>
-      <c r="L32" t="s">
-        <v>73</v>
-      </c>
-      <c r="M32" t="s">
-        <v>73</v>
-      </c>
-      <c r="N32" t="s">
-        <v>73</v>
-      </c>
-      <c r="O32" t="s">
-        <v>73</v>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -3791,8 +3779,8 @@
       <c r="Q32">
         <v>0</v>
       </c>
-      <c r="R32" t="s">
-        <v>73</v>
+      <c r="R32">
+        <v>1</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -3806,17 +3794,17 @@
       <c r="V32">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>73</v>
+      <c r="W32">
+        <v>1</v>
       </c>
       <c r="X32">
         <v>0</v>
       </c>
-      <c r="Y32" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>73</v>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
       </c>
       <c r="AA32">
         <v>0</v>
@@ -3824,11 +3812,11 @@
       <c r="AB32">
         <v>0</v>
       </c>
-      <c r="AC32" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>73</v>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
       </c>
       <c r="AE32">
         <v>0</v>
@@ -3844,14 +3832,14 @@
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" t="s">
-        <v>73</v>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3859,8 +3847,8 @@
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33" t="s">
-        <v>73</v>
+      <c r="G33">
+        <v>1</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3874,17 +3862,17 @@
       <c r="K33">
         <v>0</v>
       </c>
-      <c r="L33" t="s">
-        <v>73</v>
-      </c>
-      <c r="M33" t="s">
-        <v>73</v>
-      </c>
-      <c r="N33" t="s">
-        <v>73</v>
-      </c>
-      <c r="O33" t="s">
-        <v>73</v>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -3892,8 +3880,8 @@
       <c r="Q33">
         <v>0</v>
       </c>
-      <c r="R33" t="s">
-        <v>73</v>
+      <c r="R33">
+        <v>1</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -3907,17 +3895,17 @@
       <c r="V33">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>73</v>
+      <c r="W33">
+        <v>1</v>
       </c>
       <c r="X33">
         <v>0</v>
       </c>
-      <c r="Y33" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>73</v>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
       </c>
       <c r="AA33">
         <v>0</v>
@@ -3925,11 +3913,11 @@
       <c r="AB33">
         <v>0</v>
       </c>
-      <c r="AC33" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>73</v>
+      <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
       </c>
       <c r="AE33">
         <v>0</v>
@@ -3945,14 +3933,14 @@
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" t="s">
-        <v>73</v>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3960,8 +3948,8 @@
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34" t="s">
-        <v>73</v>
+      <c r="G34">
+        <v>1</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3975,17 +3963,17 @@
       <c r="K34">
         <v>0</v>
       </c>
-      <c r="L34" t="s">
-        <v>73</v>
-      </c>
-      <c r="M34" t="s">
-        <v>73</v>
-      </c>
-      <c r="N34" t="s">
-        <v>73</v>
-      </c>
-      <c r="O34" t="s">
-        <v>73</v>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -3993,8 +3981,8 @@
       <c r="Q34">
         <v>0</v>
       </c>
-      <c r="R34" t="s">
-        <v>73</v>
+      <c r="R34">
+        <v>1</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -4008,17 +3996,17 @@
       <c r="V34">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>73</v>
+      <c r="W34">
+        <v>1</v>
       </c>
       <c r="X34">
         <v>0</v>
       </c>
-      <c r="Y34" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>73</v>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
       </c>
       <c r="AA34">
         <v>0</v>
@@ -4026,11 +4014,11 @@
       <c r="AB34">
         <v>0</v>
       </c>
-      <c r="AC34" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>73</v>
+      <c r="AC34">
+        <v>1</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -4046,199 +4034,199 @@
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B35" t="s">
-        <v>73</v>
+      <c r="B35">
+        <v>1</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="D35" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" t="s">
-        <v>73</v>
-      </c>
-      <c r="H35" t="s">
-        <v>75</v>
-      </c>
-      <c r="I35" t="s">
-        <v>75</v>
-      </c>
-      <c r="J35" t="s">
-        <v>75</v>
-      </c>
-      <c r="K35" t="s">
-        <v>75</v>
-      </c>
-      <c r="L35" t="s">
-        <v>73</v>
-      </c>
-      <c r="M35" t="s">
-        <v>73</v>
-      </c>
-      <c r="N35" t="s">
-        <v>73</v>
-      </c>
-      <c r="O35" t="s">
-        <v>73</v>
-      </c>
-      <c r="P35" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>76</v>
-      </c>
-      <c r="R35" t="s">
-        <v>73</v>
-      </c>
-      <c r="S35" t="s">
-        <v>75</v>
-      </c>
-      <c r="T35" t="s">
-        <v>75</v>
-      </c>
-      <c r="U35" t="s">
-        <v>76</v>
-      </c>
-      <c r="V35" t="s">
-        <v>75</v>
-      </c>
-      <c r="W35" t="s">
-        <v>73</v>
-      </c>
-      <c r="X35" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>76</v>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35">
+        <v>1</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
+      </c>
+      <c r="AG35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B36" t="s">
-        <v>73</v>
+      <c r="B36">
+        <v>1</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H36" t="s">
-        <v>75</v>
-      </c>
-      <c r="I36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J36" t="s">
-        <v>75</v>
-      </c>
-      <c r="K36" t="s">
-        <v>75</v>
-      </c>
-      <c r="L36" t="s">
-        <v>73</v>
-      </c>
-      <c r="M36" t="s">
-        <v>73</v>
-      </c>
-      <c r="N36" t="s">
-        <v>73</v>
-      </c>
-      <c r="O36" t="s">
-        <v>73</v>
-      </c>
-      <c r="P36" t="s">
-        <v>75</v>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
-      <c r="R36" t="s">
-        <v>73</v>
-      </c>
-      <c r="S36" t="s">
-        <v>75</v>
-      </c>
-      <c r="T36" t="s">
-        <v>75</v>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
-      <c r="V36" t="s">
-        <v>75</v>
-      </c>
-      <c r="W36" t="s">
-        <v>73</v>
-      </c>
-      <c r="X36" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>73</v>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
       </c>
       <c r="AA36">
         <v>0</v>
       </c>
-      <c r="AB36" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>75</v>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+      <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
+      </c>
+      <c r="AF36">
+        <v>1</v>
       </c>
       <c r="AG36">
         <v>0</v>
@@ -4248,14 +4236,14 @@
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" t="s">
-        <v>73</v>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -4263,8 +4251,8 @@
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37" t="s">
-        <v>73</v>
+      <c r="G37">
+        <v>1</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4278,17 +4266,17 @@
       <c r="K37">
         <v>0</v>
       </c>
-      <c r="L37" t="s">
-        <v>73</v>
-      </c>
-      <c r="M37" t="s">
-        <v>73</v>
-      </c>
-      <c r="N37" t="s">
-        <v>73</v>
-      </c>
-      <c r="O37" t="s">
-        <v>73</v>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -4296,8 +4284,8 @@
       <c r="Q37">
         <v>0</v>
       </c>
-      <c r="R37" t="s">
-        <v>73</v>
+      <c r="R37">
+        <v>1</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -4311,17 +4299,17 @@
       <c r="V37">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>73</v>
+      <c r="W37">
+        <v>1</v>
       </c>
       <c r="X37">
         <v>0</v>
       </c>
-      <c r="Y37" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>73</v>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -4329,11 +4317,11 @@
       <c r="AB37">
         <v>0</v>
       </c>
-      <c r="AC37" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>73</v>
+      <c r="AC37">
+        <v>1</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
       </c>
       <c r="AE37">
         <v>0</v>
@@ -4349,115 +4337,115 @@
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B38" t="s">
-        <v>73</v>
+      <c r="B38">
+        <v>1</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>75</v>
-      </c>
-      <c r="G38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H38" t="s">
-        <v>75</v>
-      </c>
-      <c r="I38" t="s">
-        <v>75</v>
-      </c>
-      <c r="J38" t="s">
-        <v>75</v>
-      </c>
-      <c r="K38" t="s">
-        <v>75</v>
-      </c>
-      <c r="L38" t="s">
-        <v>73</v>
-      </c>
-      <c r="M38" t="s">
-        <v>73</v>
-      </c>
-      <c r="N38" t="s">
-        <v>73</v>
-      </c>
-      <c r="O38" t="s">
-        <v>73</v>
-      </c>
-      <c r="P38" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>76</v>
-      </c>
-      <c r="R38" t="s">
-        <v>73</v>
-      </c>
-      <c r="S38" t="s">
-        <v>75</v>
-      </c>
-      <c r="T38" t="s">
-        <v>75</v>
-      </c>
-      <c r="U38" t="s">
-        <v>76</v>
-      </c>
-      <c r="V38" t="s">
-        <v>75</v>
-      </c>
-      <c r="W38" t="s">
-        <v>73</v>
-      </c>
-      <c r="X38" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>76</v>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38">
+        <v>1</v>
+      </c>
+      <c r="AC38">
+        <v>1</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <v>1</v>
+      </c>
+      <c r="AG38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B39" t="s">
-        <v>73</v>
+      <c r="B39">
+        <v>1</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
-      <c r="D39" t="s">
-        <v>73</v>
+      <c r="D39">
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -4465,8 +4453,8 @@
       <c r="F39">
         <v>0</v>
       </c>
-      <c r="G39" t="s">
-        <v>73</v>
+      <c r="G39">
+        <v>1</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4480,17 +4468,17 @@
       <c r="K39">
         <v>0</v>
       </c>
-      <c r="L39" t="s">
-        <v>73</v>
-      </c>
-      <c r="M39" t="s">
-        <v>73</v>
-      </c>
-      <c r="N39" t="s">
-        <v>73</v>
-      </c>
-      <c r="O39" t="s">
-        <v>73</v>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -4498,8 +4486,8 @@
       <c r="Q39">
         <v>0</v>
       </c>
-      <c r="R39" t="s">
-        <v>73</v>
+      <c r="R39">
+        <v>1</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -4513,17 +4501,17 @@
       <c r="V39">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>73</v>
+      <c r="W39">
+        <v>1</v>
       </c>
       <c r="X39">
         <v>0</v>
       </c>
-      <c r="Y39" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>73</v>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
       </c>
       <c r="AA39">
         <v>0</v>
@@ -4531,11 +4519,11 @@
       <c r="AB39">
         <v>0</v>
       </c>
-      <c r="AC39" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>73</v>
+      <c r="AC39">
+        <v>1</v>
+      </c>
+      <c r="AD39">
+        <v>1</v>
       </c>
       <c r="AE39">
         <v>0</v>
@@ -4554,8 +4542,8 @@
       <c r="B40">
         <v>0</v>
       </c>
-      <c r="C40" t="s">
-        <v>74</v>
+      <c r="C40">
+        <v>1</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -4661,26 +4649,26 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" t="s">
-        <v>75</v>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41" t="s">
-        <v>75</v>
-      </c>
-      <c r="I41" t="s">
-        <v>75</v>
-      </c>
-      <c r="J41" t="s">
-        <v>75</v>
-      </c>
-      <c r="K41" t="s">
-        <v>75</v>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4694,32 +4682,32 @@
       <c r="O41">
         <v>0</v>
       </c>
-      <c r="P41" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>76</v>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
-      <c r="S41" t="s">
-        <v>75</v>
-      </c>
-      <c r="T41" t="s">
-        <v>75</v>
-      </c>
-      <c r="U41" t="s">
-        <v>76</v>
-      </c>
-      <c r="V41" t="s">
-        <v>75</v>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
-      <c r="X41" t="s">
-        <v>75</v>
+      <c r="X41">
+        <v>1</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -4727,11 +4715,11 @@
       <c r="Z41">
         <v>0</v>
       </c>
-      <c r="AA41" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>75</v>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -4739,14 +4727,14 @@
       <c r="AD41">
         <v>0</v>
       </c>
-      <c r="AE41" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>76</v>
+      <c r="AE41">
+        <v>1</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
+      </c>
+      <c r="AG41">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
